--- a/src/Dataset/Sales.xlsx
+++ b/src/Dataset/Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win\Desktop\project_BI\Dataset_selas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win\Desktop\FOcrew\src\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852508C2-79FD-4E09-8FBD-009180E97BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3D3EAA-23C7-49A3-B584-582C9C25CEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5CB2C1DA-34A8-4DF1-9E1F-83B78EDE9B74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CB2C1DA-34A8-4DF1-9E1F-83B78EDE9B74}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E1EFAA-9B60-4C76-992B-A6329051AA2A}">
   <dimension ref="A1:M867"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19823,7 +19823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB63ADA-DA56-467B-8DC1-BDB833157274}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
